--- a/GBDS AUGUST FILES 2025/DSSR GBDS MONTH OF AUGUST.xlsx
+++ b/GBDS AUGUST FILES 2025/DSSR GBDS MONTH OF AUGUST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B058E80-9537-4DC1-99F5-29C6D3C97FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821134D-700F-459A-BE38-07CC902176F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
